--- a/HLA_Support.xlsx
+++ b/HLA_Support.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BBA8E0-7617-4D6A-B750-6021A256112A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4206A3-81DA-48A1-996E-738F660D4CCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cov支持的等位基因" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="125">
   <si>
     <t>HLA-A01:01</t>
   </si>
@@ -380,6 +380,34 @@
   </si>
   <si>
     <t xml:space="preserve">Supplemental Table. The threshold of different tools for T cell epitopes prediction </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hla1_frequency</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hla2_frequency</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.39%,19.74%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.39%,10.60%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.28%,8.33%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>,20.06%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.18%,20.06%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +510,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -499,6 +527,11 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -780,427 +813,661 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDBB8AB-6651-4D53-B226-4849325A5C97}">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="26" style="5" customWidth="1"/>
+    <col min="1" max="2" width="19.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.125" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D1" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="11">
+        <v>0.18570493030217999</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="11">
+        <v>0.157311254560763</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="11">
+        <v>0.13785199738048501</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="11">
+        <v>8.0316212929179495E-2</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="11">
+        <v>7.3346430910281604E-2</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="11">
+        <v>6.6704088315090296E-2</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="11">
+        <v>5.6740574422303298E-2</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="11">
+        <v>3.62522219103752E-2</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="11">
+        <v>3.5831228365609501E-2</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D10" s="12">
+        <v>9.1399999999999995E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="11">
+        <v>3.2135840583777699E-2</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="11">
+        <v>2.7224249228178499E-2</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="11">
+        <v>2.4370848535877999E-2</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D13" s="12">
+        <v>5.7299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="11">
+        <v>1.6418748245860201E-2</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="11">
+        <v>1.50622134905043E-2</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="11">
+        <v>9.4957432874918108E-3</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="11">
+        <v>8.0456544110768108E-3</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="11">
+        <v>4.25671250818599E-3</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="11">
+        <v>3.1808401160071101E-3</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="11">
+        <v>2.61951538965291E-3</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D20" s="12">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="11">
+        <v>2.3388530264758199E-3</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D21" s="12">
+        <v>0.1986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="11">
+        <v>9.5939751146038005E-2</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="11">
+        <v>7.82580222658808E-2</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D23" s="12">
+        <v>0.3604</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="11">
+        <v>7.11011320048648E-2</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D24" s="12">
+        <v>0.1366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="11">
+        <v>5.5992141453831003E-2</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="11">
+        <v>5.04256712508186E-2</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D26" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="11">
+        <v>4.8975582374403602E-2</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D27" s="12">
+        <v>0.39389999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="11">
+        <v>4.2567125081859898E-2</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D28" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="11">
+        <v>4.0602488539620202E-2</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D29" s="12">
+        <v>0.39389999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="11">
+        <v>3.10131911310693E-2</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D30" s="12">
+        <v>0.39389999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="11">
+        <v>2.9656656375713301E-2</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D31" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="11">
+        <v>2.9516325194124799E-2</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D32" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="11">
+        <v>2.8206567499298299E-2</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D33" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="11">
+        <v>2.6662924501824298E-2</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D34" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="11">
+        <v>2.4978950322761699E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="11">
+        <v>2.3154644962110602E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="11">
+        <v>2.0488352511928199E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="11">
+        <v>1.9833473664514899E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="11">
+        <v>1.90850406960427E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="11">
+        <v>1.7354289456450601E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="11">
+        <v>1.7120404153803E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="11">
+        <v>0.144634671157264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="11">
+        <v>0.14098606043596201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="11">
+        <v>0.105014500888764</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="11">
+        <v>8.8969969127140003E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="11">
+        <v>8.2327626531948694E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="11">
+        <v>7.9006455234353096E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" s="11">
+        <v>6.0155299840958E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49" s="11">
+        <v>5.1875760127233599E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50" s="11">
+        <v>4.3034895687155003E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51" s="11">
+        <v>3.7328094302554002E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52" s="11">
+        <v>3.6392553091963702E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53" s="11">
+        <v>1.6371971185330701E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54" s="11">
+        <v>1.4313780522032001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55" s="11">
+        <v>1.27233604640284E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56" s="11">
+        <v>9.7764056506689095E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57" s="11">
+        <v>9.1683038637852005E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58" s="11">
+        <v>8.6069791374309996E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59" s="11">
+        <v>8.4198708953129395E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60" s="11">
+        <v>7.9053232294882606E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B61" s="11">
+        <v>7.8117691084292297E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1213,7 +1480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F59E1F6-7E05-4357-B26B-6AC80EF79D96}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
